--- a/asset/교수별선호강의실양식(예시).xlsx
+++ b/asset/교수별선호강의실양식(예시).xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -420,47 +420,31 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>김대중</v>
+        <v>조문석</v>
       </c>
       <c r="B3" t="str">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>조문석</v>
+        <v>유소율</v>
       </c>
       <c r="B4" t="str">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>조승용</v>
+        <v>박상렬</v>
       </c>
       <c r="B5" t="str">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>유소율</v>
-      </c>
-      <c r="B6" t="str">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>박상렬</v>
-      </c>
-      <c r="B7" t="str">
         <v>1217</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
   </ignoredErrors>
 </worksheet>
 </file>